--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-08T12:39:43-06:00</t>
+    <t>2022-01-10T13:59:33-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:59:33-06:00</t>
+    <t>2022-01-10T15:12:20-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="274">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.JurisdictionOrganization</t>
+    <t>https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.JurisdictionOrganization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:12:20-06:00</t>
+    <t>2022-02-27T08:35:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the mCSD Organization for mCSD Jurisdictions</t>
+    <t>A profile on the mCSD Organization for mCSD Jurisdictions.
+Jurisdictions are political administrative units or other territories over which authority is exercised. A Jurisdiction
+has a unique identifier, geographic attributes, etc. Jurisdictions include political administrative units such as village
+districts or regions.  Each Jurisdiction is defined by a pairing of [Location](StructureDefinition-IHE.mCSD.JurisdictionLocation.html)
+and [Organization](StructureDefinition-IHE.mCSD.JurisdictionOrganization.html).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Organization</t>
+    <t>https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -445,14 +449,11 @@
     <t>hierarchy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.OrganizationHierarchy}
+    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.OrganizationHierarchy}
 </t>
   </si>
   <si>
-    <t>mCSD Additional Hierarchies extension for mCSD Organization.</t>
-  </si>
-  <si>
-    <t>If there are additional hierarchies (such as funding source),then use this extension.</t>
+    <t>If there are additional hierarchies (such as funding source), include them in this extension.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -559,10 +560,7 @@
 </t>
   </si>
   <si>
-    <t>Kind of organization</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.</t>
+    <t>One type must be set to: urn:ietf:rfc:3986#urn:ihe:iti:mcsd:2019:jurisdiction</t>
   </si>
   <si>
     <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
@@ -597,10 +595,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
+    <t>The name of the Organization.</t>
   </si>
   <si>
     <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
@@ -709,14 +704,11 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Organization)
 </t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
+    <t>If the Organization belongs to a single hierarchy, the partOf element shall be used.</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -1225,7 +1217,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.5078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2288,7 +2280,7 @@
         <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2348,7 +2340,7 @@
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -2368,11 +2360,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2394,16 +2386,16 @@
         <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -2452,7 +2444,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -2481,7 +2473,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2504,17 +2496,17 @@
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
@@ -2563,7 +2555,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -2572,27 +2564,27 @@
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2615,26 +2607,26 @@
         <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Q13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -2693,21 +2685,21 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2715,7 +2707,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>79</v>
@@ -2730,19 +2722,19 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -2767,14 +2759,14 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2791,7 +2783,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -2806,21 +2798,21 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2846,16 +2838,16 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -2904,7 +2896,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -2913,19 +2905,19 @@
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -2933,7 +2925,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2959,16 +2951,16 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3017,7 +3009,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3035,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3046,7 +3038,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3069,19 +3061,19 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3130,7 +3122,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3139,19 +3131,19 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3159,7 +3151,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3182,19 +3174,19 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3243,7 +3235,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3252,19 +3244,19 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AI18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3272,7 +3264,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3295,17 +3287,17 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3354,7 +3346,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3369,13 +3361,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3383,7 +3375,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3406,19 +3398,19 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3467,7 +3459,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -3485,7 +3477,7 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -3496,7 +3488,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3522,10 +3514,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3576,7 +3568,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -3594,7 +3586,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3605,11 +3597,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3631,13 +3623,13 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3687,7 +3679,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -3705,7 +3697,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -3716,11 +3708,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3742,16 +3734,16 @@
         <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -3800,7 +3792,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -3829,7 +3821,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3852,17 +3844,17 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -3887,13 +3879,13 @@
         <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -3911,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -3929,7 +3921,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -3940,7 +3932,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3963,17 +3955,17 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4022,7 +4014,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4037,10 +4029,10 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4051,7 +4043,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4074,17 +4066,17 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4133,7 +4125,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4148,10 +4140,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4162,7 +4154,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4185,17 +4177,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4236,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4259,10 +4251,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4273,7 +4265,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4296,17 +4288,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4355,7 +4347,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4373,7 +4365,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T08:35:45-06:00</t>
+    <t>2022-02-28T19:51:02-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="275">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-28T19:51:02-06:00</t>
+    <t>2022-08-12T09:44:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,9 @@
 Jurisdictions are political administrative units or other territories over which authority is exercised. A Jurisdiction
 has a unique identifier, geographic attributes, etc. Jurisdictions include political administrative units such as village
 districts or regions.  Each Jurisdiction is defined by a pairing of [Location](StructureDefinition-IHE.mCSD.JurisdictionLocation.html)
-and [Organization](StructureDefinition-IHE.mCSD.JurisdictionOrganization.html).</t>
+and [Organization](StructureDefinition-IHE.mCSD.JurisdictionOrganization.html).
+In addition to the base requirements of [mCSD Organization](StructureDefinition-IHE.mCSD.Organization.html),
+one `type` must be set to `https://profiles.ihe.net/ITI/mCSD/CodeSystem/IHE.mCSD.Organization.Location.Types#jurisdiction`.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -94,9 +96,6 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>IHE http://www.ihe.net/Governance/#Intellectual_Property</t>
-  </si>
-  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -266,7 +265,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}mcsd-type-2:One type must be set as an mCSD Jurisdiction. {type.where( coding.system = 'urn:ietf:rfc:3986' and coding.code = 'urn:ihe:iti:mcsd:2019:jurisdiction' ).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -446,14 +445,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>hierarchy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.OrganizationHierarchy}
+    <t>purposeOfUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.PurposeOfUse}
 </t>
   </si>
   <si>
-    <t>If there are additional hierarchies (such as funding source), include them in this extension.</t>
+    <t>Purpose of Use Extension</t>
+  </si>
+  <si>
+    <t>Set a purpose of use for an mCSD Endpoint or mCSD Organization.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -463,23 +465,6 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
@@ -553,14 +538,11 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>One type must be set to: urn:ietf:rfc:3986#urn:ihe:iti:mcsd:2019:jurisdiction</t>
+    <t>One type must be set to: https://profiles.ihe.net/ITI/mCSD/CodeSystem/IHE.mCSD.Organization.Location.Types#jurisdiction</t>
   </si>
   <si>
     <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
@@ -580,6 +562,10 @@
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
     <t>No equivalent in v2</t>
   </si>
   <si>
@@ -590,6 +576,20 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>A code that describes the type of Organization.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://profiles.ihe.net/ITI/mCSD/CodeSystem/IHE.mCSD.Organization.Location.Types"/&gt;
+    &lt;code value="jurisdiction"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Organization.name</t>
@@ -754,10 +754,17 @@
     <t>Organization.contact.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -775,6 +782,9 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1139,56 +1149,54 @@
       <c r="A16" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1208,16 +1216,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.8828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1226,1058 +1234,1058 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.5390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.66796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AL2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>140</v>
@@ -2285,77 +2293,77 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2364,2014 +2372,2123 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AF12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>154</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="Q13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH18" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.8.0</t>
+    <t>3.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T09:44:57-05:00</t>
+    <t>2024-12-02T17:05:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,13 +69,19 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (https://www.ihe.net/ihe_domains/it_infrastructure/)</t>
+  </si>
+  <si>
+    <t>null (iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -132,6 +138,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -256,6 +265,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A grouping of people or organizations with a common purpose</t>
@@ -283,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -443,6 +456,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.extension:purposeOfUse</t>
   </si>
   <si>
     <t>purposeOfUse</t>
@@ -576,6 +592,9 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Organization.type:jurisdiction</t>
   </si>
   <si>
     <t>jurisdiction</t>
@@ -593,6 +612,10 @@
   </si>
   <si>
     <t>Organization.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>The name of the Organization.</t>
@@ -1007,10 +1030,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1120,83 +1143,83 @@
         <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1216,3279 +1239,3366 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.8828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.90625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.69140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.5390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.5390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="48.66796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.66796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="AG10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.9.0</t>
+    <t>4.0.0-comment</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:05:26-06:00</t>
+    <t>2025-03-12T11:04:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
+++ b/ITI/mCSD/StructureDefinition-IHE.mCSD.JurisdictionOrganization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-comment</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:04:43-05:00</t>
+    <t>2025-05-21T13:41:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1238,17 +1238,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1257,26 +1257,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.5390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.2578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="211.14453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="189.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
